--- a/Doc/配置表/Level1Dialog.xlsx
+++ b/Doc/配置表/Level1Dialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chinese1990SGame\Doc\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5B9F82-1ED6-4E09-B8FD-55FD66FBA50A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6C2A19-3D4A-4035-8597-A486FDACD70D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="7605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,33 +76,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>3#1#2</t>
-  </si>
-  <si>
-    <t>3#1#3</t>
-  </si>
-  <si>
-    <t>3#1#4</t>
-  </si>
-  <si>
-    <t>3#1#5</t>
-  </si>
-  <si>
-    <t>3#1#6</t>
-  </si>
-  <si>
-    <t>3#1#7</t>
-  </si>
-  <si>
-    <t>3#1#8</t>
-  </si>
-  <si>
-    <t>3#1#9</t>
-  </si>
-  <si>
-    <t>3#1#10</t>
-  </si>
-  <si>
     <t>3#1#11</t>
   </si>
   <si>
@@ -356,6 +329,42 @@
   </si>
   <si>
     <t>Complacent5Dialog5</t>
+  </si>
+  <si>
+    <t>4#1#2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4#1#3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5#1#4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6#1#5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#7#6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#7#1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#9#8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#6#2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#8#3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1313,7 +1322,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1388,19 +1397,19 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1414,22 +1423,22 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1440,22 +1449,22 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1466,22 +1475,22 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1492,22 +1501,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1518,22 +1527,22 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1544,22 +1553,22 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1570,22 +1579,22 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1596,22 +1605,22 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1622,22 +1631,22 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1648,22 +1657,22 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1674,22 +1683,22 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1700,22 +1709,22 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1726,22 +1735,22 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1752,26 +1761,27 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>